--- a/流向地图/流向地图.xlsx
+++ b/流向地图/流向地图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jameslv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wyn\dashboard\流向地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB41AD-DB28-4625-9950-C6473E328833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C13FF-0467-4917-AFDF-D641089A47D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23976" yWindow="564" windowWidth="21600" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>出发地</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t>目的地纬度</t>
+  </si>
+  <si>
+    <t>119.85238</t>
+  </si>
+  <si>
+    <t>32.90944</t>
+  </si>
+  <si>
+    <t>118.21716</t>
+  </si>
+  <si>
+    <t>33.45996</t>
+  </si>
+  <si>
+    <t>107.76867</t>
+  </si>
+  <si>
+    <t>32.98411</t>
+  </si>
+  <si>
+    <t>82.97892</t>
+  </si>
+  <si>
+    <t>46.74852</t>
+  </si>
+  <si>
+    <t>120.000572</t>
+  </si>
+  <si>
+    <t>26.221983</t>
   </si>
 </sst>
 </file>
@@ -501,7 +531,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,13 +566,21 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>119.30623900000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26.075302000000001</v>
+      </c>
       <c r="G2" s="2">
         <v>13</v>
       </c>
@@ -551,13 +589,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>112.54924800000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>37.857013999999999</v>
+      </c>
       <c r="G3" s="2">
         <v>71</v>
       </c>
@@ -566,13 +612,21 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>125.3245</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43.886840999999997</v>
+      </c>
       <c r="G4" s="2">
         <v>82</v>
       </c>
@@ -581,13 +635,21 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C5" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>106.50496200000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>29.533155000000001</v>
+      </c>
       <c r="G5" s="2">
         <v>56</v>
       </c>
@@ -596,13 +658,21 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C6" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>125.14904</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42.927</v>
+      </c>
       <c r="G6" s="2">
         <v>80</v>
       </c>
@@ -611,13 +681,21 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>104.065735</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.659462000000001</v>
+      </c>
       <c r="G7" s="2">
         <v>71</v>
       </c>
@@ -626,13 +704,21 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>119.946973</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31.772752000000001</v>
+      </c>
       <c r="G8" s="2">
         <v>30</v>
       </c>
@@ -641,13 +727,21 @@
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="G9" s="2">
         <v>69</v>
       </c>
@@ -656,13 +750,21 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C10" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>118.016974</v>
+      </c>
+      <c r="F10" s="2">
+        <v>37.383541999999998</v>
+      </c>
       <c r="G10" s="2">
         <v>27</v>
       </c>
@@ -671,13 +773,21 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>110.33119000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20.031970999999999</v>
+      </c>
       <c r="G11" s="2">
         <v>8</v>
       </c>
@@ -686,13 +796,21 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>109.840405</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40.658168000000003</v>
+      </c>
       <c r="G12" s="2">
         <v>83</v>
       </c>
@@ -701,13 +819,21 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C13" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2">
+        <v>102.71225099999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>25.040609</v>
+      </c>
       <c r="G13" s="2">
         <v>55</v>
       </c>
@@ -716,13 +842,21 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C14" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="F14" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
@@ -731,13 +865,21 @@
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C15" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2">
+        <v>113.665412</v>
+      </c>
+      <c r="F15" s="2">
+        <v>34.757975000000002</v>
+      </c>
       <c r="G15" s="2">
         <v>92</v>
       </c>
@@ -746,13 +888,21 @@
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C16" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <v>125.3245</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43.886840999999997</v>
+      </c>
       <c r="G16" s="2">
         <v>77</v>
       </c>
@@ -761,13 +911,21 @@
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2">
+        <v>106.50496200000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>29.533155000000001</v>
+      </c>
       <c r="G17" s="2">
         <v>21</v>
       </c>
@@ -776,13 +934,21 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C18" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>112.98227900000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>28.194089999999999</v>
+      </c>
       <c r="G18" s="2">
         <v>7</v>
       </c>
@@ -791,13 +957,21 @@
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C19" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="G19" s="2">
         <v>95</v>
       </c>
@@ -806,13 +980,21 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C20" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <v>124.383044</v>
+      </c>
+      <c r="F20" s="2">
+        <v>40.124296000000001</v>
+      </c>
       <c r="G20" s="2">
         <v>17</v>
       </c>
@@ -821,13 +1003,21 @@
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="C21" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2">
+        <v>121.618622</v>
+      </c>
+      <c r="F21" s="2">
+        <v>38.914589999999997</v>
+      </c>
       <c r="G21" s="2">
         <v>9</v>
       </c>
@@ -836,13 +1026,21 @@
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>121.472644</v>
+      </c>
+      <c r="F22" s="2">
+        <v>31.231705999999999</v>
+      </c>
       <c r="G22" s="2">
         <v>63</v>
       </c>
@@ -851,13 +1049,21 @@
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>113.280637</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23.125177999999998</v>
+      </c>
       <c r="G23" s="2">
         <v>60</v>
       </c>
@@ -866,13 +1072,21 @@
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2">
+        <v>121.618622</v>
+      </c>
+      <c r="F24" s="2">
+        <v>38.914589999999997</v>
+      </c>
       <c r="G24" s="2">
         <v>98</v>
       </c>
@@ -881,13 +1095,21 @@
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2">
+        <v>108.320004</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22.824020000000001</v>
+      </c>
       <c r="G25" s="2">
         <v>14</v>
       </c>
@@ -896,13 +1118,21 @@
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <v>115.892151</v>
+      </c>
+      <c r="F26" s="2">
+        <v>28.676493000000001</v>
+      </c>
       <c r="G26" s="2">
         <v>34</v>
       </c>
@@ -911,13 +1141,21 @@
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2">
+        <v>91.132211999999996</v>
+      </c>
+      <c r="F27" s="2">
+        <v>29.660361000000002</v>
+      </c>
       <c r="G27" s="2">
         <v>82</v>
       </c>
@@ -926,13 +1164,21 @@
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2">
+        <v>125.3245</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43.886840999999997</v>
+      </c>
       <c r="G28" s="2">
         <v>15</v>
       </c>
@@ -941,13 +1187,21 @@
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <v>109.840405</v>
+      </c>
+      <c r="F29" s="2">
+        <v>40.658168000000003</v>
+      </c>
       <c r="G29" s="2">
         <v>20</v>
       </c>
@@ -956,13 +1210,21 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2">
+        <v>106.50496200000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>29.533155000000001</v>
+      </c>
       <c r="G30" s="2">
         <v>31</v>
       </c>
@@ -971,13 +1233,21 @@
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2">
+        <v>116.40528500000001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39.904989</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2">
+        <v>119.946973</v>
+      </c>
+      <c r="F31" s="2">
+        <v>31.772752000000001</v>
+      </c>
       <c r="G31" s="2">
         <v>99</v>
       </c>
@@ -986,13 +1256,21 @@
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G32" s="2">
         <v>14</v>
       </c>
@@ -1001,13 +1279,21 @@
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G33" s="2">
         <v>34</v>
       </c>
@@ -1016,13 +1302,21 @@
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G34" s="2">
         <v>82</v>
       </c>
@@ -1031,13 +1325,21 @@
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G35" s="2">
         <v>15</v>
       </c>
